--- a/DOC/周报/12.xlsx
+++ b/DOC/周报/12.xlsx
@@ -126,163 +126,163 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>12、闪电开单模板关联到车系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、个人参数应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、退货归库的归库配件处理方式完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15、短信、微信的模板维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16、微信图文、卡券的维护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17、图片上传及保存问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18、钣喷项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19、工单详情、客户详情、车辆详情确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20、需要链接工单详情的地方确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21、PC端客户模块功能完善，APP客户管理模块接口联调</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22、标准项目添加后，自动添加配件的接口确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23、结算相关接口转JAVA后台处理（以退款处理开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24、结算后相关业务数据处理转JAVA后台处理（以退款处理开始）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25、采购原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26、库存原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27、结算原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28、报表原型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>找演示事例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29、对接供应商库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30、对接结算中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31、对接微信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32、对接客服-晓鸟SR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33、对接反馈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求必须确定，确定需求时间不能超过2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发，必须按时间节点完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求及处理方式必须确定，确定需求时间不能超过2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定图片相关问题，图片存放地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定数据结构，是否需要维护到数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须按时间节点完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客服营销平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10、客户回访定时器，下次保养时间加填确定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>11、商机（车检、精准营销、工单）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、闪电开单模板关联到车系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13、个人参数应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14、退货归库的归库配件处理方式完善</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15、短信、微信的模板维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16、微信图文、卡券的维护</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17、图片上传及保存问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18、钣喷项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19、工单详情、客户详情、车辆详情确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20、需要链接工单详情的地方确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21、PC端客户模块功能完善，APP客户管理模块接口联调</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22、标准项目添加后，自动添加配件的接口确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23、结算相关接口转JAVA后台处理（以退款处理开始）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24、结算后相关业务数据处理转JAVA后台处理（以退款处理开始）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25、采购原型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26、库存原型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27、结算原型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28、报表原型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关键动作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>找演示事例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29、对接供应商库存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30、对接结算中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31、对接微信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32、对接客服-晓鸟SR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33、对接反馈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求必须确定，确定需求时间不能超过2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发，必须按时间节点完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求及处理方式必须确定，确定需求时间不能超过2天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定图片相关问题，图片存放地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定数据结构，是否需要维护到数据库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口确定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必须按时间节点完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客服营销平台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -306,7 +306,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +316,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,10 +338,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -684,7 +691,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -699,22 +706,22 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I1" t="s">
-        <v>50</v>
-      </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -728,7 +735,7 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
@@ -751,10 +758,10 @@
         <v>43441</v>
       </c>
       <c r="I3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
@@ -767,17 +774,17 @@
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="3">
         <v>43438</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="3">
         <v>43439</v>
       </c>
       <c r="I4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -797,10 +804,10 @@
         <v>43440</v>
       </c>
       <c r="I5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.15">
@@ -813,17 +820,17 @@
       <c r="F6" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="3">
         <v>43438</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="3">
         <v>43438</v>
       </c>
       <c r="I6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.15">
@@ -836,17 +843,17 @@
       <c r="F7" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1">
-        <v>43439</v>
-      </c>
-      <c r="H7" s="1">
+      <c r="G7" s="3">
+        <v>43439</v>
+      </c>
+      <c r="H7" s="3">
         <v>43439</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
@@ -859,17 +866,17 @@
       <c r="F8" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="1">
-        <v>43439</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="3">
+        <v>43439</v>
+      </c>
+      <c r="H8" s="3">
         <v>43439</v>
       </c>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
@@ -879,17 +886,17 @@
       <c r="F9" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1">
-        <v>43439</v>
-      </c>
-      <c r="H9" s="1">
+      <c r="G9" s="3">
+        <v>43439</v>
+      </c>
+      <c r="H9" s="3">
         <v>43439</v>
       </c>
       <c r="I9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
@@ -905,17 +912,17 @@
       <c r="F10" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="1">
-        <v>43439</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G10" s="3">
+        <v>43439</v>
+      </c>
+      <c r="H10" s="3">
         <v>43439</v>
       </c>
       <c r="I10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.15">
@@ -923,22 +930,22 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>43439</v>
-      </c>
-      <c r="H11" s="1">
+      <c r="G11" s="3">
+        <v>43439</v>
+      </c>
+      <c r="H11" s="3">
         <v>43439</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
@@ -946,7 +953,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="F12" t="s">
         <v>4</v>
@@ -958,30 +965,30 @@
         <v>43441</v>
       </c>
       <c r="I12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="1">
-        <v>43439</v>
-      </c>
-      <c r="H13" s="1">
+      <c r="G13" s="3">
+        <v>43439</v>
+      </c>
+      <c r="H13" s="3">
         <v>43439</v>
       </c>
       <c r="I13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
@@ -992,42 +999,42 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="1">
-        <v>43439</v>
-      </c>
-      <c r="H14" s="1">
+      <c r="G14" s="3">
+        <v>43439</v>
+      </c>
+      <c r="H14" s="3">
         <v>43439</v>
       </c>
       <c r="I14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="1">
-        <v>43439</v>
-      </c>
-      <c r="H15" s="1">
+      <c r="G15" s="3">
+        <v>43439</v>
+      </c>
+      <c r="H15" s="3">
         <v>43439</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.15">
@@ -1038,7 +1045,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
         <v>5</v>
@@ -1050,15 +1057,15 @@
         <v>43440</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
         <v>3</v>
@@ -1070,10 +1077,10 @@
         <v>43446</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.15">
@@ -1081,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F18" t="s">
         <v>1</v>
@@ -1093,15 +1100,15 @@
         <v>43441</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
         <v>1</v>
@@ -1113,15 +1120,15 @@
         <v>43438</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
         <v>1</v>
@@ -1133,15 +1140,15 @@
         <v>43440</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>4</v>
@@ -1153,15 +1160,15 @@
         <v>43440</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>5</v>
@@ -1173,15 +1180,15 @@
         <v>43440</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>1</v>
@@ -1193,15 +1200,15 @@
         <v>43438</v>
       </c>
       <c r="I23" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
         <v>1</v>
@@ -1213,15 +1220,15 @@
         <v>43454</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
         <v>1</v>
@@ -1233,15 +1240,15 @@
         <v>43454</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1253,15 +1260,15 @@
         <v>43441</v>
       </c>
       <c r="I26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
         <v>12</v>
@@ -1273,15 +1280,15 @@
         <v>43441</v>
       </c>
       <c r="I27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E28" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
         <v>12</v>
@@ -1293,15 +1300,15 @@
         <v>43446</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E29" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1313,25 +1320,25 @@
         <v>43446</v>
       </c>
       <c r="I29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
         <v>5</v>
@@ -1345,7 +1352,7 @@
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
         <v>3</v>
@@ -1357,12 +1364,12 @@
         <v>43440</v>
       </c>
       <c r="I33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/DOC/周报/12.xlsx
+++ b/DOC/周报/12.xlsx
@@ -338,11 +338,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="58" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -691,7 +692,7 @@
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,7 +769,7 @@
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F4" t="s">
